--- a/Source/Excel/map.xlsx
+++ b/Source/Excel/map.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C42ED01-328A-4A69-999C-4E01CDE91226}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1B63BC-BE8A-45E2-979B-78904023B9AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Vector2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>map_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -72,7 +68,43 @@
     <t>map_3</t>
   </si>
   <si>
-    <t>(100,100)</t>
+    <t>主键</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(100,50,100)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(100,50,300)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(100,50,200)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -456,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -490,84 +522,104 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
